--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>75.47473020776401</v>
+        <v>112.2257916055422</v>
       </c>
       <c r="R2">
-        <v>679.2725718698761</v>
+        <v>1010.03212444988</v>
       </c>
       <c r="S2">
-        <v>0.007925542839807641</v>
+        <v>0.01843529625332493</v>
       </c>
       <c r="T2">
-        <v>0.008322052885346994</v>
+        <v>0.01962369488501797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>48.79903771847201</v>
+        <v>51.54207721868534</v>
       </c>
       <c r="R3">
-        <v>439.1913394662481</v>
+        <v>463.878694968168</v>
       </c>
       <c r="S3">
-        <v>0.005124349075703662</v>
+        <v>0.008466801164370572</v>
       </c>
       <c r="T3">
-        <v>0.005380717115904188</v>
+        <v>0.009012598464304947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>2.870649263076666</v>
+        <v>4.171541970273555</v>
       </c>
       <c r="R4">
-        <v>25.83584336769</v>
+        <v>37.543877732462</v>
       </c>
       <c r="S4">
-        <v>0.0003014446510765525</v>
+        <v>0.0006852579158049256</v>
       </c>
       <c r="T4">
-        <v>0.0003165257420178083</v>
+        <v>0.000729431850322117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>11.97818248399</v>
+        <v>6.965895889875667</v>
       </c>
       <c r="R5">
-        <v>71.86909490394</v>
+        <v>41.795375339254</v>
       </c>
       <c r="S5">
-        <v>0.001257819645841285</v>
+        <v>0.001144285574309413</v>
       </c>
       <c r="T5">
-        <v>0.0008804983939895996</v>
+        <v>0.0008120332743961395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H6">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I6">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J6">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>5.642513852722667</v>
+        <v>2.372966482071556</v>
       </c>
       <c r="R6">
-        <v>50.782624674504</v>
+        <v>21.356698338644</v>
       </c>
       <c r="S6">
-        <v>0.0005925160002673485</v>
+        <v>0.000389806473809172</v>
       </c>
       <c r="T6">
-        <v>0.0006221592122210806</v>
+        <v>0.0004149346558429356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>741.4373617807861</v>
+        <v>1043.79428782398</v>
       </c>
       <c r="R7">
-        <v>6672.936256027075</v>
+        <v>9394.148590415818</v>
       </c>
       <c r="S7">
-        <v>0.07785776189794301</v>
+        <v>0.1714637664682161</v>
       </c>
       <c r="T7">
-        <v>0.08175293795587656</v>
+        <v>0.1825168736521602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>479.3846852294281</v>
@@ -948,10 +948,10 @@
         <v>4314.462167064852</v>
       </c>
       <c r="S8">
-        <v>0.05033981372407337</v>
+        <v>0.07874837472810471</v>
       </c>
       <c r="T8">
-        <v>0.05285828371857273</v>
+        <v>0.08382474884702087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>28.200254712465</v>
+        <v>38.798850225927</v>
       </c>
       <c r="R9">
-        <v>253.802292412185</v>
+        <v>349.189652033343</v>
       </c>
       <c r="S9">
-        <v>0.00296128685987853</v>
+        <v>0.006373475187570198</v>
       </c>
       <c r="T9">
-        <v>0.003109438224573445</v>
+        <v>0.006784329946178807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J10">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>117.669476862135</v>
+        <v>64.78869282548851</v>
       </c>
       <c r="R10">
-        <v>706.0168611728101</v>
+        <v>388.7321569529311</v>
       </c>
       <c r="S10">
-        <v>0.01235638043675537</v>
+        <v>0.01064281863389916</v>
       </c>
       <c r="T10">
-        <v>0.008649708379145839</v>
+        <v>0.007552592690251382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J11">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>55.430083330644</v>
+        <v>22.070584878474</v>
       </c>
       <c r="R11">
-        <v>498.870749975796</v>
+        <v>198.635263906266</v>
       </c>
       <c r="S11">
-        <v>0.005820670028787128</v>
+        <v>0.003625528186505821</v>
       </c>
       <c r="T11">
-        <v>0.006111874579040993</v>
+        <v>0.003859241422073217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>854.054422118886</v>
+        <v>1307.960537810422</v>
       </c>
       <c r="R12">
-        <v>7686.489799069975</v>
+        <v>11771.6448402938</v>
       </c>
       <c r="S12">
-        <v>0.08968359199691563</v>
+        <v>0.2148582750651994</v>
       </c>
       <c r="T12">
-        <v>0.09417040707893375</v>
+        <v>0.2287087321767502</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>552.1985152365614</v>
+        <v>600.7086434798533</v>
       </c>
       <c r="R13">
-        <v>4969.786637129052</v>
+        <v>5406.37779131868</v>
       </c>
       <c r="S13">
-        <v>0.0579859374990563</v>
+        <v>0.09867822401652943</v>
       </c>
       <c r="T13">
-        <v>0.06088693837472008</v>
+        <v>0.1050393404742046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H14">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I14">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J14">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>32.48359670493722</v>
+        <v>48.61816700848555</v>
       </c>
       <c r="R14">
-        <v>292.352370344435</v>
+        <v>437.56350307637</v>
       </c>
       <c r="S14">
-        <v>0.003411077278014975</v>
+        <v>0.007986491333876201</v>
       </c>
       <c r="T14">
-        <v>0.003581731381359244</v>
+        <v>0.008501326313623003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H15">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I15">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J15">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>135.5423158352183</v>
+        <v>81.18558848288167</v>
       </c>
       <c r="R15">
-        <v>813.25389501131</v>
+        <v>487.11353089729</v>
       </c>
       <c r="S15">
-        <v>0.01423319338541013</v>
+        <v>0.01333633163794529</v>
       </c>
       <c r="T15">
-        <v>0.009963514211781018</v>
+        <v>0.009464023047681324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H16">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I16">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J16">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>63.84936911359955</v>
+        <v>27.65626752721555</v>
       </c>
       <c r="R16">
-        <v>574.644322022396</v>
+        <v>248.90640774494</v>
       </c>
       <c r="S16">
-        <v>0.006704772694271496</v>
+        <v>0.004543086556408395</v>
       </c>
       <c r="T16">
-        <v>0.007040208358436187</v>
+        <v>0.004835948562698369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>307.338132239037</v>
+        <v>555.9919277816399</v>
       </c>
       <c r="R17">
-        <v>1844.028793434222</v>
+        <v>3335.951566689839</v>
       </c>
       <c r="S17">
-        <v>0.03227333872756769</v>
+        <v>0.09133262288885104</v>
       </c>
       <c r="T17">
-        <v>0.02259196937514792</v>
+        <v>0.06481347881046286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H18">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I18">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J18">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>198.712934331426</v>
+        <v>255.351095899704</v>
       </c>
       <c r="R18">
-        <v>1192.277605988556</v>
+        <v>1532.106575398224</v>
       </c>
       <c r="S18">
-        <v>0.02086669100415798</v>
+        <v>0.04194644594772234</v>
       </c>
       <c r="T18">
-        <v>0.01460709250152441</v>
+        <v>0.02976696605894583</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H19">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I19">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J19">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>11.6894751448425</v>
+        <v>20.666761434186</v>
       </c>
       <c r="R19">
-        <v>70.13685086905498</v>
+        <v>124.000568605116</v>
       </c>
       <c r="S19">
-        <v>0.001227502712236069</v>
+        <v>0.003394922541292138</v>
       </c>
       <c r="T19">
-        <v>0.000859275946527962</v>
+        <v>0.002409180128999237</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H20">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I20">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J20">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>48.7759574908575</v>
+        <v>34.510622105043</v>
       </c>
       <c r="R20">
-        <v>195.10382996343</v>
+        <v>138.042488420172</v>
       </c>
       <c r="S20">
-        <v>0.005121925438915459</v>
+        <v>0.005669049273710738</v>
       </c>
       <c r="T20">
-        <v>0.002390298767135333</v>
+        <v>0.002681997540822281</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H21">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I21">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J21">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>22.976692514898</v>
+        <v>11.756212097532</v>
       </c>
       <c r="R21">
-        <v>137.860155089388</v>
+        <v>70.537272585192</v>
       </c>
       <c r="S21">
-        <v>0.002412764647751983</v>
+        <v>0.001931189343682222</v>
       </c>
       <c r="T21">
-        <v>0.001688982521814236</v>
+        <v>0.001370453356606914</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H22">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I22">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J22">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>2986.591922382804</v>
+        <v>833.743588482731</v>
       </c>
       <c r="R22">
-        <v>26879.32730144524</v>
+        <v>7503.692296344579</v>
       </c>
       <c r="S22">
-        <v>0.3136196997420128</v>
+        <v>0.1369588027234759</v>
       </c>
       <c r="T22">
-        <v>0.3293099008979706</v>
+        <v>0.1457876087007891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H23">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I23">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J23">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>1931.014678275059</v>
+        <v>382.9144424233987</v>
       </c>
       <c r="R23">
-        <v>17379.13210447553</v>
+        <v>3446.229981810588</v>
       </c>
       <c r="S23">
-        <v>0.2027743526189115</v>
+        <v>0.06290123762783487</v>
       </c>
       <c r="T23">
-        <v>0.2129190290677348</v>
+        <v>0.06695605419826214</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H24">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I24">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J24">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>113.5937535317878</v>
+        <v>30.99106116379077</v>
       </c>
       <c r="R24">
-        <v>1022.34378178609</v>
+        <v>278.919550474117</v>
       </c>
       <c r="S24">
-        <v>0.01192839189318655</v>
+        <v>0.005090892080917886</v>
       </c>
       <c r="T24">
-        <v>0.01252516202090861</v>
+        <v>0.005419067397437066</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H25">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I25">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J25">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>473.9857029370567</v>
+        <v>51.75076916931483</v>
       </c>
       <c r="R25">
-        <v>2843.91421762234</v>
+        <v>310.504615015889</v>
       </c>
       <c r="S25">
-        <v>0.04977287078394278</v>
+        <v>0.008501082926882541</v>
       </c>
       <c r="T25">
-        <v>0.03484198464733109</v>
+        <v>0.00603272675983499</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H26">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I26">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J26">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>223.2785231306604</v>
+        <v>17.62915245958378</v>
       </c>
       <c r="R26">
-        <v>2009.506708175944</v>
+        <v>158.662372136254</v>
       </c>
       <c r="S26">
-        <v>0.02344630441751474</v>
+        <v>0.002895935449756354</v>
       </c>
       <c r="T26">
-        <v>0.02461930864198549</v>
+        <v>0.003082616785313472</v>
       </c>
     </row>
   </sheetData>
